--- a/EE/fm_radio/BOM.xlsx
+++ b/EE/fm_radio/BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Part Description</t>
   </si>
@@ -65,6 +65,45 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/molex/0733300030/2755903</t>
+  </si>
+  <si>
+    <t>49.9 ohm resistor for input filter</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/panasonic-electronic-components/ERA-3AEB49R9V/2026631</t>
+  </si>
+  <si>
+    <t>HF amplifier</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/mini-circuits/MAR-8ASM/13928124</t>
+  </si>
+  <si>
+    <t>226 ohm res 1% for HF amp bias current</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-dale/CRCW2512226RFKEG/1173582</t>
+  </si>
+  <si>
+    <t>0.1 uF DC blocking cap</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kyocera-avx/560L104YTT/8323738</t>
+  </si>
+  <si>
+    <t>10 uH RF choke for HF amp</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/murata-electronics/LQW32FT100M0HL/9559540</t>
+  </si>
+  <si>
+    <t>Mixer</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/analog-devices-inc/LT5560EDD-PBF/1620364</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Total Cost</t>
@@ -124,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -146,6 +185,9 @@
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -470,11 +512,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="38.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="23.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="38.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="23.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -546,7 +588,9 @@
         <v>11</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
       <c r="D5" s="6"/>
       <c r="E5" s="1" t="s">
         <v>12</v>
@@ -557,7 +601,9 @@
         <v>13</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -568,67 +614,113 @@
         <v>15</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="1"/>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="1"/>
+      <c r="A14" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="1"/>
+      <c r="A15" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
@@ -801,8 +893,8 @@
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="8" t="s">
-        <v>17</v>
+      <c r="C40" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="D40" s="6">
         <f>SUM(D3:D39)</f>
